--- a/agreement_participants/springer/agr_participants_springer_year_2022.xlsx
+++ b/agreement_participants/springer/agr_participants_springer_year_2022.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t xml:space="preserve">agr_name</t>
   </si>
@@ -20,247 +20,433 @@
     <t xml:space="preserve">agr_participant</t>
   </si>
   <si>
+    <t xml:space="preserve">agr_inst_tag</t>
+  </si>
+  <si>
     <t xml:space="preserve">cri_inst_name_all</t>
   </si>
   <si>
     <t xml:space="preserve">cri_inst_id</t>
   </si>
   <si>
+    <t xml:space="preserve">edvarda_participant_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">publisher_standard_name</t>
   </si>
   <si>
     <t xml:space="preserve">springer</t>
   </si>
   <si>
+    <t xml:space="preserve">Oslo Nye Høyskole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpringerNature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handelshøyskolen BI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diakonhjemmet Sykehus. Medisinsk Bibliotek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diakonsyk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diakonhjemmet sykehus</t>
+  </si>
+  <si>
     <t xml:space="preserve">GRID-Arendal</t>
   </si>
   <si>
-    <t xml:space="preserve">SpringerNature</t>
+    <t xml:space="preserve">grid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Høgskolen i Molde - Vitenskapelig høgskole i logistikk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">himolde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Høgskolen i Østfold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hioef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Høyskolen Kristiania - Ernst G Mortensens Stiftelse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Høyskolen Kristiania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Høgskulen På Vestlandet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hvl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Høgskulen på Vestlandet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Høgskulen i Volda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hvo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institutt for energiteknikk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ife</t>
   </si>
   <si>
     <t xml:space="preserve">Havforskningsinstituttet</t>
   </si>
   <si>
-    <t xml:space="preserve">Handelshøyskolen BI</t>
+    <t xml:space="preserve">imr</t>
   </si>
   <si>
     <t xml:space="preserve">Høgskolen I Innlandet</t>
   </si>
   <si>
+    <t xml:space="preserve">inn</t>
+  </si>
+  <si>
     <t xml:space="preserve">Høgskolen i Innlandet</t>
   </si>
   <si>
-    <t xml:space="preserve">Høgskolen i Molde - Vitenskapelig høgskole i logistikk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Høgskolen i Østfold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Høgskulen i Volda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Høyskolen Kristiania - Ernst G Mortensens Stiftelse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Høyskolen Kristiania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Høgskulen På Vestlandet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Høgskulen på Vestlandet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Institutt for energiteknikk</t>
-  </si>
-  <si>
     <t xml:space="preserve">Meteorologisk institutt</t>
   </si>
   <si>
+    <t xml:space="preserve">met</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MF Vitenskapelig Høyskole For Teologi, Religion Og Samfunn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MF vitenskapelig høyskole for teologi, religion og samfunn</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nordlandsforskning</t>
   </si>
   <si>
+    <t xml:space="preserve">nf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Norges Geotekniske Institutt</t>
   </si>
   <si>
+    <t xml:space="preserve">ngi</t>
+  </si>
+  <si>
     <t xml:space="preserve">Norges Handelshøyskole</t>
   </si>
   <si>
+    <t xml:space="preserve">nhh</t>
+  </si>
+  <si>
     <t xml:space="preserve">NIBIO</t>
   </si>
   <si>
+    <t xml:space="preserve">nibio</t>
+  </si>
+  <si>
     <t xml:space="preserve">Norsk institutt for bioøkonomi</t>
   </si>
   <si>
     <t xml:space="preserve">Norges Idrettshøgskole - Biblioteket</t>
   </si>
   <si>
+    <t xml:space="preserve">nih</t>
+  </si>
+  <si>
     <t xml:space="preserve">Norges idrettshøgskole</t>
   </si>
   <si>
     <t xml:space="preserve">NILU - Stiftelsen Norsk Institutt For Luftforskning</t>
   </si>
   <si>
+    <t xml:space="preserve">nilu</t>
+  </si>
+  <si>
     <t xml:space="preserve">NILU - Norsk institutt for luftforskning</t>
   </si>
   <si>
     <t xml:space="preserve">Norsk institutt for naturforskning</t>
   </si>
   <si>
+    <t xml:space="preserve">nina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norsk Institutt For Vannforskning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">niva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norsk institutt for vannforskning</t>
+  </si>
+  <si>
     <t xml:space="preserve">Norges miljø- og biovitenskapelige universitet</t>
   </si>
   <si>
+    <t xml:space="preserve">nmbu</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nofima</t>
   </si>
   <si>
+    <t xml:space="preserve">nofima</t>
+  </si>
+  <si>
     <t xml:space="preserve">NOFIMA</t>
   </si>
   <si>
     <t xml:space="preserve">NORCE Norwegian Research Centre AS</t>
   </si>
   <si>
+    <t xml:space="preserve">norce</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nord Universitet</t>
   </si>
   <si>
+    <t xml:space="preserve">nord</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nord universitet</t>
   </si>
   <si>
     <t xml:space="preserve">Norsk Polarinstitutt</t>
   </si>
   <si>
+    <t xml:space="preserve">npolar</t>
+  </si>
+  <si>
     <t xml:space="preserve">Norges teknisk-naturvitenskapelige universitet</t>
   </si>
   <si>
+    <t xml:space="preserve">ntnu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ntnu02</t>
+  </si>
+  <si>
     <t xml:space="preserve">St. Olavs Hospital HF</t>
   </si>
   <si>
-    <t xml:space="preserve">Norsk Institutt For Vannforskning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norsk institutt for vannforskning</t>
+    <t xml:space="preserve">NUBU - Nasjonalt utviklingssenter for barn og unge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nubu</t>
   </si>
   <si>
     <t xml:space="preserve">OsloMet - Storbyuniversitetet</t>
   </si>
   <si>
+    <t xml:space="preserve">oslomet</t>
+  </si>
+  <si>
     <t xml:space="preserve">OsloMet - storbyuniversitetet</t>
   </si>
   <si>
+    <t xml:space="preserve">Sykehuset Østfold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ostfsyk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sykehuset Østfold HF</t>
+  </si>
+  <si>
     <t xml:space="preserve">SINTEF AS</t>
   </si>
   <si>
+    <t xml:space="preserve">sintef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SINTEF Narvik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sintef02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sintef03</t>
+  </si>
+  <si>
     <t xml:space="preserve">SINTEF Energi AS</t>
   </si>
   <si>
+    <t xml:space="preserve">sintef04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SINTEF Ocean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sintef05</t>
+  </si>
+  <si>
     <t xml:space="preserve">SINTEF Manufacturing</t>
   </si>
   <si>
-    <t xml:space="preserve">SINTEF Narvik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SINTEF Ocean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sykehuset Østfold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sykehuset Østfold HF</t>
-  </si>
-  <si>
     <t xml:space="preserve">Statistisk Sentralbyrå</t>
   </si>
   <si>
+    <t xml:space="preserve">ssb</t>
+  </si>
+  <si>
     <t xml:space="preserve">Statistisk sentralbyrå</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Arbeidsmiljøinstitutt</t>
   </si>
   <si>
+    <t xml:space="preserve">stami</t>
+  </si>
+  <si>
     <t xml:space="preserve">Statens arbeidsmiljøinstitutt</t>
   </si>
   <si>
+    <t xml:space="preserve">Sykehuset Telemark HF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sthf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Transportøkonomisk Institutt</t>
   </si>
   <si>
+    <t xml:space="preserve">toei</t>
+  </si>
+  <si>
     <t xml:space="preserve">Transportøkonomisk institutt</t>
   </si>
   <si>
+    <t xml:space="preserve">Utdanningsdirektoratet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">udir</t>
+  </si>
+  <si>
     <t xml:space="preserve">Universitetet i Agder</t>
   </si>
   <si>
+    <t xml:space="preserve">uia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Universitetet i Bergen</t>
   </si>
   <si>
+    <t xml:space="preserve">uib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uib02</t>
+  </si>
+  <si>
     <t xml:space="preserve">Helse Bergen HF - Haukeland universitetssykehus</t>
   </si>
   <si>
     <t xml:space="preserve">UiO : Universitetsbiblioteket</t>
   </si>
   <si>
+    <t xml:space="preserve">uio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universitetet i Oslo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uio02</t>
+  </si>
+  <si>
     <t xml:space="preserve">Akershus universitetssykehus HF</t>
   </si>
   <si>
+    <t xml:space="preserve">uio03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oslo universitetssykehus HF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uio04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kreftregisteret - Institutt for populasjonsbasert kreftforskning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uio05</t>
+  </si>
+  <si>
     <t xml:space="preserve">Folkehelseinstituttet</t>
   </si>
   <si>
-    <t xml:space="preserve">Kreftregisteret - Institutt for populasjonsbasert kreftforskning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oslo universitetssykehus HF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universitetet i Oslo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Universitetet I Stavanger</t>
   </si>
   <si>
+    <t xml:space="preserve">uis</t>
+  </si>
+  <si>
     <t xml:space="preserve">Universitetet i Stavanger</t>
   </si>
   <si>
+    <t xml:space="preserve">uis02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helse Stavanger HF - Stavanger universitetssjukehus </t>
+  </si>
+  <si>
     <t xml:space="preserve">UiT - Norges arktiske universitet</t>
   </si>
   <si>
+    <t xml:space="preserve">uit</t>
+  </si>
+  <si>
     <t xml:space="preserve">UiT Norges arktiske universitet</t>
   </si>
   <si>
+    <t xml:space="preserve">uit02</t>
+  </si>
+  <si>
     <t xml:space="preserve">Universitetssykehuset Nord-Norge HF</t>
   </si>
   <si>
     <t xml:space="preserve">Universitetssenteret på Svalbard</t>
   </si>
   <si>
+    <t xml:space="preserve">unis</t>
+  </si>
+  <si>
     <t xml:space="preserve">Universitetet I Sørøst-Norge</t>
   </si>
   <si>
+    <t xml:space="preserve">usn</t>
+  </si>
+  <si>
     <t xml:space="preserve">Universitetet i Sørøst-Norge</t>
   </si>
   <si>
-    <t xml:space="preserve">Utdanningsdirektoratet</t>
+    <t xml:space="preserve">Vestlandsforsking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vf</t>
   </si>
   <si>
     <t xml:space="preserve">Vestre Viken HF</t>
   </si>
   <si>
-    <t xml:space="preserve">Diakonhjemmet Sykehus. Medisinsk Bibliotek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diakonhjemmet sykehus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MF Vitenskapelig Høyskole For Teologi, Religion Og Samfunn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MF vitenskapelig høyskole for teologi, religion og samfunn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oslo Nye Høyskole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sykehuset Telemark HF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vestlandsforsking</t>
+    <t xml:space="preserve">vvhf</t>
   </si>
 </sst>
 </file>
@@ -608,949 +794,1333 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1620</v>
+      </c>
+      <c r="F2" t="n">
+        <v>51024</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7431</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="n">
+        <v>158</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15353</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>158</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1990</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15359</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>209</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5" t="n">
+        <v>51025</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="n">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="n">
         <v>211</v>
       </c>
-      <c r="E6" t="s">
-        <v>7</v>
+      <c r="F6" t="n">
+        <v>15435</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="n">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="n">
         <v>224</v>
       </c>
-      <c r="E7" t="s">
-        <v>7</v>
+      <c r="F7" t="n">
+        <v>15443</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="n">
-        <v>223</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1615</v>
+      </c>
+      <c r="F8" t="n">
+        <v>15444</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1615</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="n">
+        <v>203</v>
+      </c>
+      <c r="F9" t="n">
+        <v>15449</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="n">
-        <v>203</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="n">
+        <v>223</v>
+      </c>
+      <c r="F10" t="n">
+        <v>15450</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="n">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="n">
         <v>7492</v>
       </c>
-      <c r="E11" t="s">
-        <v>7</v>
+      <c r="F11" t="n">
+        <v>15451</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="n">
-        <v>7419</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7431</v>
+      </c>
+      <c r="F12" t="n">
+        <v>15454</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="n">
-        <v>7446</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="n">
+        <v>209</v>
+      </c>
+      <c r="F13" t="n">
+        <v>15428</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="n">
-        <v>7452</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7419</v>
+      </c>
+      <c r="F14" t="n">
+        <v>15468</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" t="n">
-        <v>191</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="n">
+        <v>190</v>
+      </c>
+      <c r="F15" t="n">
+        <v>15469</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="n">
-        <v>7677</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7446</v>
+      </c>
+      <c r="F16" t="n">
+        <v>15474</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="n">
-        <v>150</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="n">
+        <v>7452</v>
+      </c>
+      <c r="F17" t="n">
+        <v>15477</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="n">
-        <v>7460</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="n">
+        <v>191</v>
+      </c>
+      <c r="F18" t="n">
+        <v>15480</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="n">
-        <v>7511</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="n">
+        <v>7677</v>
+      </c>
+      <c r="F19" t="n">
+        <v>15481</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="n">
-        <v>192</v>
-      </c>
-      <c r="E20" t="s">
-        <v>7</v>
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="n">
+        <v>150</v>
+      </c>
+      <c r="F20" t="n">
+        <v>15485</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" t="n">
-        <v>7543</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
+        <v>55</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="n">
+        <v>7460</v>
+      </c>
+      <c r="F21" t="n">
+        <v>15488</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2057</v>
-      </c>
-      <c r="E22" t="s">
-        <v>7</v>
+        <v>58</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" t="n">
+        <v>7511</v>
+      </c>
+      <c r="F22" t="n">
+        <v>15489</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" t="n">
-        <v>204</v>
-      </c>
-      <c r="E23" t="s">
-        <v>7</v>
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" t="n">
+        <v>7464</v>
+      </c>
+      <c r="F23" t="n">
+        <v>15491</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" t="n">
-        <v>7466</v>
-      </c>
-      <c r="E24" t="s">
-        <v>7</v>
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" t="n">
+        <v>192</v>
+      </c>
+      <c r="F24" t="n">
+        <v>15493</v>
+      </c>
+      <c r="G24" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" t="n">
-        <v>194</v>
-      </c>
-      <c r="E25" t="s">
-        <v>7</v>
+        <v>65</v>
+      </c>
+      <c r="D25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" t="n">
+        <v>7543</v>
+      </c>
+      <c r="F25" t="n">
+        <v>15496</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1920</v>
-      </c>
-      <c r="E26" t="s">
-        <v>7</v>
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2057</v>
+      </c>
+      <c r="F26" t="n">
+        <v>50928</v>
+      </c>
+      <c r="G26" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" t="n">
-        <v>7464</v>
-      </c>
-      <c r="E27" t="s">
-        <v>7</v>
+        <v>70</v>
+      </c>
+      <c r="D27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" t="n">
+        <v>204</v>
+      </c>
+      <c r="F27" t="n">
+        <v>15499</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" t="n">
-        <v>215</v>
-      </c>
-      <c r="E28" t="s">
-        <v>7</v>
+        <v>73</v>
+      </c>
+      <c r="D28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" t="n">
+        <v>7466</v>
+      </c>
+      <c r="F28" t="n">
+        <v>15502</v>
+      </c>
+      <c r="G28" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" t="n">
-        <v>7401</v>
-      </c>
-      <c r="E29" t="s">
-        <v>7</v>
+        <v>75</v>
+      </c>
+      <c r="D29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" t="n">
+        <v>194</v>
+      </c>
+      <c r="F29" t="n">
+        <v>15507</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" t="n">
-        <v>7548</v>
-      </c>
-      <c r="E30" t="s">
-        <v>7</v>
+        <v>76</v>
+      </c>
+      <c r="D30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1920</v>
+      </c>
+      <c r="F30" t="n">
+        <v>15507</v>
+      </c>
+      <c r="G30" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" t="n">
-        <v>7630</v>
-      </c>
-      <c r="E31" t="s">
-        <v>7</v>
+        <v>79</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31" t="n">
+        <v>51031</v>
+      </c>
+      <c r="G31" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" t="n">
-        <v>6228</v>
-      </c>
-      <c r="E32" t="s">
-        <v>7</v>
+        <v>81</v>
+      </c>
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" t="n">
+        <v>215</v>
+      </c>
+      <c r="F32" t="n">
+        <v>15439</v>
+      </c>
+      <c r="G32" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" t="n">
-        <v>7566</v>
-      </c>
-      <c r="E33" t="s">
-        <v>7</v>
+        <v>84</v>
+      </c>
+      <c r="D33" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1983</v>
+      </c>
+      <c r="F33" t="n">
+        <v>15510</v>
+      </c>
+      <c r="G33" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1983</v>
-      </c>
-      <c r="E34" t="s">
-        <v>7</v>
+        <v>87</v>
+      </c>
+      <c r="D34" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" t="n">
+        <v>6228</v>
+      </c>
+      <c r="F34" t="n">
+        <v>15526</v>
+      </c>
+      <c r="G34" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" t="n">
-        <v>5932</v>
-      </c>
-      <c r="E35" t="s">
-        <v>7</v>
+        <v>89</v>
+      </c>
+      <c r="D35" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" t="n">
+        <v>7401</v>
+      </c>
+      <c r="F35" t="n">
+        <v>15526</v>
+      </c>
+      <c r="G35" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" t="n">
-        <v>7476</v>
-      </c>
-      <c r="E36" t="s">
-        <v>7</v>
+        <v>90</v>
+      </c>
+      <c r="D36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" t="n">
+        <v>7548</v>
+      </c>
+      <c r="F36" t="n">
+        <v>15526</v>
+      </c>
+      <c r="G36" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" t="n">
-        <v>7482</v>
-      </c>
-      <c r="E37" t="s">
-        <v>7</v>
+        <v>92</v>
+      </c>
+      <c r="D37" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" t="n">
+        <v>7566</v>
+      </c>
+      <c r="F37" t="n">
+        <v>15526</v>
+      </c>
+      <c r="G37" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" t="n">
-        <v>201</v>
-      </c>
-      <c r="E38" t="s">
-        <v>7</v>
+        <v>94</v>
+      </c>
+      <c r="D38" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" t="n">
+        <v>7630</v>
+      </c>
+      <c r="F38" t="n">
+        <v>15526</v>
+      </c>
+      <c r="G38" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="C39" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1936</v>
-      </c>
-      <c r="E39" t="s">
-        <v>7</v>
+        <v>97</v>
+      </c>
+      <c r="D39" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" t="n">
+        <v>5932</v>
+      </c>
+      <c r="F39" t="n">
+        <v>15535</v>
+      </c>
+      <c r="G39" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" t="n">
-        <v>184</v>
-      </c>
-      <c r="E40" t="s">
-        <v>7</v>
+        <v>100</v>
+      </c>
+      <c r="D40" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" t="n">
+        <v>7476</v>
+      </c>
+      <c r="F40" t="n">
+        <v>15537</v>
+      </c>
+      <c r="G40" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="C41" t="s">
-        <v>61</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1972</v>
-      </c>
-      <c r="E41" t="s">
-        <v>7</v>
+        <v>103</v>
+      </c>
+      <c r="D41" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1959</v>
+      </c>
+      <c r="F41" t="n">
+        <v>51030</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="C42" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42" t="n">
-        <v>7502</v>
-      </c>
-      <c r="E42" t="s">
-        <v>7</v>
+        <v>105</v>
+      </c>
+      <c r="D42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E42" t="n">
+        <v>7482</v>
+      </c>
+      <c r="F42" t="n">
+        <v>15544</v>
+      </c>
+      <c r="G42" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="C43" t="s">
-        <v>63</v>
-      </c>
-      <c r="D43" t="n">
-        <v>5737</v>
-      </c>
-      <c r="E43" t="s">
-        <v>7</v>
+        <v>108</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43" t="n">
+        <v>15546</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="C44" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" t="n">
-        <v>2012</v>
-      </c>
-      <c r="E44" t="s">
-        <v>7</v>
+        <v>110</v>
+      </c>
+      <c r="D44" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44" t="n">
+        <v>201</v>
+      </c>
+      <c r="F44" t="n">
+        <v>15548</v>
+      </c>
+      <c r="G44" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="C45" t="s">
-        <v>65</v>
-      </c>
-      <c r="D45" t="n">
-        <v>185</v>
-      </c>
-      <c r="E45" t="s">
-        <v>7</v>
+        <v>112</v>
+      </c>
+      <c r="D45" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" t="n">
+        <v>184</v>
+      </c>
+      <c r="F45" t="n">
+        <v>15549</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="C46" t="s">
-        <v>67</v>
-      </c>
-      <c r="D46" t="n">
-        <v>217</v>
-      </c>
-      <c r="E46" t="s">
-        <v>7</v>
+        <v>113</v>
+      </c>
+      <c r="D46" t="s">
+        <v>114</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1936</v>
+      </c>
+      <c r="F46" t="n">
+        <v>15549</v>
+      </c>
+      <c r="G46" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="C47" t="s">
-        <v>69</v>
-      </c>
-      <c r="D47" t="n">
-        <v>186</v>
-      </c>
-      <c r="E47" t="s">
-        <v>7</v>
+        <v>116</v>
+      </c>
+      <c r="D47" t="s">
+        <v>117</v>
+      </c>
+      <c r="E47" t="n">
+        <v>185</v>
+      </c>
+      <c r="F47" t="n">
+        <v>15550</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="C48" t="s">
-        <v>70</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1902</v>
-      </c>
-      <c r="E48" t="s">
-        <v>7</v>
+        <v>118</v>
+      </c>
+      <c r="D48" t="s">
+        <v>119</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1972</v>
+      </c>
+      <c r="F48" t="n">
+        <v>15550</v>
+      </c>
+      <c r="G48" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="C49" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49" t="n">
-        <v>195</v>
-      </c>
-      <c r="E49" t="s">
-        <v>7</v>
+        <v>120</v>
+      </c>
+      <c r="D49" t="s">
+        <v>121</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2012</v>
+      </c>
+      <c r="F49" t="n">
+        <v>15550</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="C50" t="s">
-        <v>73</v>
-      </c>
-      <c r="D50" t="n">
-        <v>222</v>
-      </c>
-      <c r="E50" t="s">
-        <v>7</v>
+        <v>122</v>
+      </c>
+      <c r="D50" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" t="n">
+        <v>5737</v>
+      </c>
+      <c r="F50" t="n">
+        <v>15550</v>
+      </c>
+      <c r="G50" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51" t="s">
-        <v>7</v>
+        <v>115</v>
+      </c>
+      <c r="C51" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" t="n">
+        <v>7502</v>
+      </c>
+      <c r="F51" t="n">
+        <v>15550</v>
+      </c>
+      <c r="G51" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="C52" t="s">
-        <v>75</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E52" t="s">
-        <v>7</v>
+        <v>127</v>
+      </c>
+      <c r="D52" t="s">
+        <v>128</v>
+      </c>
+      <c r="E52" t="n">
+        <v>217</v>
+      </c>
+      <c r="F52" t="n">
+        <v>15551</v>
+      </c>
+      <c r="G52" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="C53" t="s">
-        <v>77</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1990</v>
-      </c>
-      <c r="E53" t="s">
-        <v>7</v>
+        <v>129</v>
+      </c>
+      <c r="D53" t="s">
+        <v>130</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1938</v>
+      </c>
+      <c r="F53" t="n">
+        <v>15551</v>
+      </c>
+      <c r="G53" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="C54" t="s">
-        <v>79</v>
-      </c>
-      <c r="D54" t="n">
-        <v>190</v>
-      </c>
-      <c r="E54" t="s">
-        <v>7</v>
+        <v>132</v>
+      </c>
+      <c r="D54" t="s">
+        <v>133</v>
+      </c>
+      <c r="E54" t="n">
+        <v>186</v>
+      </c>
+      <c r="F54" t="n">
+        <v>15552</v>
+      </c>
+      <c r="G54" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="C55" t="s">
-        <v>80</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1620</v>
-      </c>
-      <c r="E55" t="s">
-        <v>7</v>
+        <v>134</v>
+      </c>
+      <c r="D55" t="s">
+        <v>135</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1902</v>
+      </c>
+      <c r="F55" t="n">
+        <v>15552</v>
+      </c>
+      <c r="G55" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="C56" t="s">
-        <v>81</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1959</v>
-      </c>
-      <c r="E56" t="s">
-        <v>7</v>
+        <v>137</v>
+      </c>
+      <c r="D56" t="s">
+        <v>136</v>
+      </c>
+      <c r="E56" t="n">
+        <v>195</v>
+      </c>
+      <c r="F56" t="n">
+        <v>15553</v>
+      </c>
+      <c r="G56" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="C57" t="s">
-        <v>82</v>
-      </c>
-      <c r="D57" t="n">
+        <v>139</v>
+      </c>
+      <c r="D57" t="s">
+        <v>140</v>
+      </c>
+      <c r="E57" t="n">
+        <v>222</v>
+      </c>
+      <c r="F57" t="n">
+        <v>15447</v>
+      </c>
+      <c r="G57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" t="s">
+        <v>142</v>
+      </c>
+      <c r="D58" t="s">
+        <v>141</v>
+      </c>
+      <c r="E58" t="n">
         <v>7484</v>
       </c>
-      <c r="E57" t="s">
-        <v>7</v>
+      <c r="F58" t="n">
+        <v>24138</v>
+      </c>
+      <c r="G58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" t="s">
+        <v>144</v>
+      </c>
+      <c r="D59" t="s">
+        <v>143</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F59" t="n">
+        <v>15559</v>
+      </c>
+      <c r="G59" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
